--- a/数据整理/stocks/港股/00874-白云山.xlsx
+++ b/数据整理/stocks/港股/00874-白云山.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00874-白云山.xlsx
+++ b/数据整理/stocks/港股/00874-白云山.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +858,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00874-白云山.xlsx
+++ b/数据整理/stocks/港股/00874-白云山.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010430</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商安阳债券A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20.38</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1469</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -580,36 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010431</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商安阳债券C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -684,26 +598,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1636</t>
+          <t>0.3168</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -778,26 +692,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>27.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3168</t>
+          <t>0.1636</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +736,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +776,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.32</v>
+          <t>010430</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安阳债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +814,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -874,14 +852,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>010431</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安阳债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00874-白云山.xlsx
+++ b/数据整理/stocks/港股/00874-白云山.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -598,26 +615,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.60</t>
+          <t>17.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.59</t>
+          <t>29.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3168</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -692,26 +709,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>17.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.65</t>
+          <t>29.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1636</t>
+          <t>0.3168</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -720,6 +737,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商安福1年定期开放债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
